--- a/HospitalMaster_01.xlsx
+++ b/HospitalMaster_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i076520\OneDrive - SAP SE\Documents\3. Org Activities\2020\1B Lives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i320030\OneDrive - SAP SE\Documents\Projects\1Blives\Data gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853199B9-8EC4-428B-A4C3-0184C9A302C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{853199B9-8EC4-428B-A4C3-0184C9A302C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3D8CCA5C-79BF-47DB-91FB-A85BD5F3357D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{A4A1524F-DCA5-4ADD-A2CD-D96ED780875D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4A1524F-DCA5-4ADD-A2CD-D96ED780875D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1704,6 +1704,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007751DE7D8FAD0D48B567ADDBBDE63DB1" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5a210909840d9aa9bc47c00f49d7ebf1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="78b1d171-2f7b-4786-bdfb-1372ef3e77af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb029dbb11c491543f46b6e3368f3f11" ns2:_="">
     <xsd:import namespace="78b1d171-2f7b-4786-bdfb-1372ef3e77af"/>
@@ -1849,7 +1855,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1858,20 +1864,44 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5196BB9D-625C-473C-A7D3-7B899A1BA238}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C83E6DF8-F5C2-4E96-A556-39F3F55B7100}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="78b1d171-2f7b-4786-bdfb-1372ef3e77af"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F90472-38C5-4783-BC44-1EB130F5F847}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5196BB9D-625C-473C-A7D3-7B899A1BA238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="78b1d171-2f7b-4786-bdfb-1372ef3e77af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C83E6DF8-F5C2-4E96-A556-39F3F55B7100}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F90472-38C5-4783-BC44-1EB130F5F847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>